--- a/成果物/30_詳細設計/5_詳細設計_カテゴリ検索.xlsx
+++ b/成果物/30_詳細設計/5_詳細設計_カテゴリ検索.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\成果物\30_詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F686C9D-6979-4A74-99CB-487475D2769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513DA8A-2A9C-492D-91A2-6EAB97EED6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="330" windowWidth="18900" windowHeight="9735" xr2:uid="{C292D4FE-1EBD-49E2-B581-4F25BCF2003C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C292D4FE-1EBD-49E2-B581-4F25BCF2003C}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリ検索" sheetId="2" r:id="rId1"/>
@@ -97,22 +97,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>リストを拡張forで回しながらレシピIDを一つずつ検索する</t>
-    <rPh sb="4" eb="6">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -349,20 +333,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>RercipeDAOの処理</t>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>RecipeAndCotegoryDAOの処理</t>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>recipe、recipe_and_category、good_table</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -401,6 +371,39 @@
   <si>
     <t>good_tableのrecipe_id</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リストを拡張for文で回しながらレシピIDを一つずつ検索する</t>
+    <rPh sb="4" eb="6">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>RecipeAndCategoryDAOの処理</t>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>RecipeDAOの処理</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -726,14 +729,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,23 +777,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1102,7 +1105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84091CE-8BB3-46E2-8726-8E944A567403}">
   <dimension ref="B1:EL145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1119,232 +1124,232 @@
   <sheetData>
     <row r="1" spans="2:142" ht="1.1499999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:142" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="31">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="34">
         <v>44365</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="32"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
-      <c r="CL2" s="33"/>
-      <c r="CM2" s="33"/>
-      <c r="CN2" s="33"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="33"/>
-      <c r="CU2" s="33"/>
-      <c r="CV2" s="33"/>
-      <c r="CW2" s="33"/>
-      <c r="CX2" s="33"/>
-      <c r="CY2" s="33"/>
-      <c r="CZ2" s="33"/>
-      <c r="DA2" s="33"/>
-      <c r="DB2" s="33"/>
-      <c r="DC2" s="33"/>
-      <c r="DD2" s="33"/>
-      <c r="DE2" s="33"/>
-      <c r="DF2" s="33"/>
-      <c r="DG2" s="33"/>
-      <c r="DH2" s="33"/>
-      <c r="DI2" s="33"/>
-      <c r="DJ2" s="33"/>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
-      <c r="DM2" s="33"/>
-      <c r="DN2" s="33"/>
-      <c r="DO2" s="33"/>
-      <c r="DP2" s="33"/>
-      <c r="DQ2" s="33"/>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="33"/>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="34"/>
-      <c r="DX2" s="34"/>
-      <c r="DY2" s="34"/>
-      <c r="DZ2" s="34"/>
-      <c r="EA2" s="34"/>
-      <c r="EB2" s="34"/>
-      <c r="EC2" s="35"/>
-      <c r="ED2" s="35"/>
-      <c r="EE2" s="35"/>
-      <c r="EF2" s="35"/>
-      <c r="EG2" s="35"/>
-      <c r="EH2" s="35"/>
-      <c r="EI2" s="35"/>
-      <c r="EJ2" s="35"/>
-      <c r="EK2" s="35"/>
-      <c r="EL2" s="35"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="35"/>
+      <c r="CJ2" s="36"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36"/>
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="36"/>
+      <c r="CQ2" s="36"/>
+      <c r="CR2" s="36"/>
+      <c r="CS2" s="36"/>
+      <c r="CT2" s="36"/>
+      <c r="CU2" s="36"/>
+      <c r="CV2" s="36"/>
+      <c r="CW2" s="36"/>
+      <c r="CX2" s="36"/>
+      <c r="CY2" s="36"/>
+      <c r="CZ2" s="36"/>
+      <c r="DA2" s="36"/>
+      <c r="DB2" s="36"/>
+      <c r="DC2" s="36"/>
+      <c r="DD2" s="36"/>
+      <c r="DE2" s="36"/>
+      <c r="DF2" s="36"/>
+      <c r="DG2" s="36"/>
+      <c r="DH2" s="36"/>
+      <c r="DI2" s="36"/>
+      <c r="DJ2" s="36"/>
+      <c r="DK2" s="36"/>
+      <c r="DL2" s="36"/>
+      <c r="DM2" s="36"/>
+      <c r="DN2" s="36"/>
+      <c r="DO2" s="36"/>
+      <c r="DP2" s="36"/>
+      <c r="DQ2" s="36"/>
+      <c r="DR2" s="36"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="36"/>
+      <c r="DU2" s="36"/>
+      <c r="DV2" s="36"/>
+      <c r="DW2" s="25"/>
+      <c r="DX2" s="25"/>
+      <c r="DY2" s="25"/>
+      <c r="DZ2" s="25"/>
+      <c r="EA2" s="25"/>
+      <c r="EB2" s="25"/>
+      <c r="EC2" s="21"/>
+      <c r="ED2" s="21"/>
+      <c r="EE2" s="21"/>
+      <c r="EF2" s="21"/>
+      <c r="EG2" s="21"/>
+      <c r="EH2" s="21"/>
+      <c r="EI2" s="21"/>
+      <c r="EJ2" s="21"/>
+      <c r="EK2" s="21"/>
+      <c r="EL2" s="21"/>
     </row>
     <row r="3" spans="2:142" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="37" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="38"/>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33"/>
-      <c r="CM3" s="33"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="33"/>
-      <c r="CP3" s="33"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="33"/>
-      <c r="CS3" s="33"/>
-      <c r="CT3" s="33"/>
-      <c r="CU3" s="33"/>
-      <c r="CV3" s="33"/>
-      <c r="CW3" s="33"/>
-      <c r="CX3" s="33"/>
-      <c r="CY3" s="33"/>
-      <c r="CZ3" s="33"/>
-      <c r="DA3" s="33"/>
-      <c r="DB3" s="33"/>
-      <c r="DC3" s="33"/>
-      <c r="DD3" s="33"/>
-      <c r="DE3" s="33"/>
-      <c r="DF3" s="33"/>
-      <c r="DG3" s="33"/>
-      <c r="DH3" s="33"/>
-      <c r="DI3" s="33"/>
-      <c r="DJ3" s="33"/>
-      <c r="DK3" s="33"/>
-      <c r="DL3" s="33"/>
-      <c r="DM3" s="33"/>
-      <c r="DN3" s="33"/>
-      <c r="DO3" s="33"/>
-      <c r="DP3" s="33"/>
-      <c r="DQ3" s="33"/>
-      <c r="DR3" s="33"/>
-      <c r="DS3" s="33"/>
-      <c r="DT3" s="33"/>
-      <c r="DU3" s="33"/>
-      <c r="DV3" s="33"/>
-      <c r="DW3" s="34"/>
-      <c r="DX3" s="34"/>
-      <c r="DY3" s="34"/>
-      <c r="DZ3" s="34"/>
-      <c r="EA3" s="34"/>
-      <c r="EB3" s="34"/>
-      <c r="EC3" s="39"/>
-      <c r="ED3" s="39"/>
-      <c r="EE3" s="39"/>
-      <c r="EF3" s="39"/>
-      <c r="EG3" s="39"/>
-      <c r="EH3" s="39"/>
-      <c r="EI3" s="39"/>
-      <c r="EJ3" s="39"/>
-      <c r="EK3" s="39"/>
-      <c r="EL3" s="39"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="24"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="36"/>
+      <c r="CM3" s="36"/>
+      <c r="CN3" s="36"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="36"/>
+      <c r="CU3" s="36"/>
+      <c r="CV3" s="36"/>
+      <c r="CW3" s="36"/>
+      <c r="CX3" s="36"/>
+      <c r="CY3" s="36"/>
+      <c r="CZ3" s="36"/>
+      <c r="DA3" s="36"/>
+      <c r="DB3" s="36"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="36"/>
+      <c r="DE3" s="36"/>
+      <c r="DF3" s="36"/>
+      <c r="DG3" s="36"/>
+      <c r="DH3" s="36"/>
+      <c r="DI3" s="36"/>
+      <c r="DJ3" s="36"/>
+      <c r="DK3" s="36"/>
+      <c r="DL3" s="36"/>
+      <c r="DM3" s="36"/>
+      <c r="DN3" s="36"/>
+      <c r="DO3" s="36"/>
+      <c r="DP3" s="36"/>
+      <c r="DQ3" s="36"/>
+      <c r="DR3" s="36"/>
+      <c r="DS3" s="36"/>
+      <c r="DT3" s="36"/>
+      <c r="DU3" s="36"/>
+      <c r="DV3" s="36"/>
+      <c r="DW3" s="25"/>
+      <c r="DX3" s="25"/>
+      <c r="DY3" s="25"/>
+      <c r="DZ3" s="25"/>
+      <c r="EA3" s="25"/>
+      <c r="EB3" s="25"/>
+      <c r="EC3" s="26"/>
+      <c r="ED3" s="26"/>
+      <c r="EE3" s="26"/>
+      <c r="EF3" s="26"/>
+      <c r="EG3" s="26"/>
+      <c r="EH3" s="26"/>
+      <c r="EI3" s="26"/>
+      <c r="EJ3" s="26"/>
+      <c r="EK3" s="26"/>
+      <c r="EL3" s="26"/>
     </row>
     <row r="4" spans="2:142" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -1355,7 +1360,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1413,7 +1418,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1469,7 +1474,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1528,7 +1533,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1585,7 +1590,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1644,7 +1649,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1701,7 +1706,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1760,7 +1765,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1818,7 +1823,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1876,7 +1881,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1933,7 +1938,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1992,7 +1997,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2049,7 +2054,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2108,7 +2113,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2166,14 +2171,14 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2281,7 +2286,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2339,7 +2344,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2398,7 +2403,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2457,7 +2462,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2515,7 +2520,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2572,7 +2577,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2682,7 +2687,7 @@
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2740,7 +2745,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2836,7 +2841,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="J30" s="12" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2890,7 +2895,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2935,61 +2940,61 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="CJ31" s="21"/>
-      <c r="CK31" s="21"/>
-      <c r="CL31" s="21"/>
-      <c r="CM31" s="21"/>
-      <c r="CN31" s="23"/>
-      <c r="CO31" s="23"/>
-      <c r="CP31" s="23"/>
-      <c r="CQ31" s="23"/>
-      <c r="CR31" s="21"/>
-      <c r="CS31" s="21"/>
-      <c r="CT31" s="21"/>
-      <c r="CU31" s="21"/>
-      <c r="CV31" s="22"/>
-      <c r="CW31" s="22"/>
-      <c r="CX31" s="22"/>
-      <c r="CY31" s="22"/>
-      <c r="CZ31" s="22"/>
-      <c r="DA31" s="22"/>
-      <c r="DB31" s="22"/>
-      <c r="DC31" s="22"/>
-      <c r="DD31" s="22"/>
-      <c r="DE31" s="22"/>
-      <c r="DF31" s="22"/>
-      <c r="DG31" s="22"/>
-      <c r="DH31" s="22"/>
-      <c r="DI31" s="22"/>
-      <c r="DJ31" s="22"/>
-      <c r="DK31" s="22"/>
-      <c r="DL31" s="22"/>
-      <c r="DM31" s="22"/>
-      <c r="DN31" s="22"/>
-      <c r="DO31" s="22"/>
-      <c r="DP31" s="22"/>
-      <c r="DQ31" s="22"/>
-      <c r="DR31" s="22"/>
-      <c r="DS31" s="22"/>
-      <c r="DT31" s="22"/>
-      <c r="DU31" s="22"/>
-      <c r="DV31" s="22"/>
-      <c r="DW31" s="22"/>
-      <c r="DX31" s="22"/>
-      <c r="DY31" s="22"/>
-      <c r="DZ31" s="22"/>
-      <c r="EA31" s="22"/>
-      <c r="EB31" s="22"/>
-      <c r="EC31" s="22"/>
-      <c r="ED31" s="22"/>
-      <c r="EE31" s="22"/>
-      <c r="EF31" s="22"/>
-      <c r="EG31" s="22"/>
-      <c r="EH31" s="22"/>
-      <c r="EI31" s="22"/>
-      <c r="EJ31" s="22"/>
-      <c r="EK31" s="22"/>
-      <c r="EL31" s="22"/>
+      <c r="CJ31" s="37"/>
+      <c r="CK31" s="37"/>
+      <c r="CL31" s="37"/>
+      <c r="CM31" s="37"/>
+      <c r="CN31" s="39"/>
+      <c r="CO31" s="39"/>
+      <c r="CP31" s="39"/>
+      <c r="CQ31" s="39"/>
+      <c r="CR31" s="37"/>
+      <c r="CS31" s="37"/>
+      <c r="CT31" s="37"/>
+      <c r="CU31" s="37"/>
+      <c r="CV31" s="38"/>
+      <c r="CW31" s="38"/>
+      <c r="CX31" s="38"/>
+      <c r="CY31" s="38"/>
+      <c r="CZ31" s="38"/>
+      <c r="DA31" s="38"/>
+      <c r="DB31" s="38"/>
+      <c r="DC31" s="38"/>
+      <c r="DD31" s="38"/>
+      <c r="DE31" s="38"/>
+      <c r="DF31" s="38"/>
+      <c r="DG31" s="38"/>
+      <c r="DH31" s="38"/>
+      <c r="DI31" s="38"/>
+      <c r="DJ31" s="38"/>
+      <c r="DK31" s="38"/>
+      <c r="DL31" s="38"/>
+      <c r="DM31" s="38"/>
+      <c r="DN31" s="38"/>
+      <c r="DO31" s="38"/>
+      <c r="DP31" s="38"/>
+      <c r="DQ31" s="38"/>
+      <c r="DR31" s="38"/>
+      <c r="DS31" s="38"/>
+      <c r="DT31" s="38"/>
+      <c r="DU31" s="38"/>
+      <c r="DV31" s="38"/>
+      <c r="DW31" s="38"/>
+      <c r="DX31" s="38"/>
+      <c r="DY31" s="38"/>
+      <c r="DZ31" s="38"/>
+      <c r="EA31" s="38"/>
+      <c r="EB31" s="38"/>
+      <c r="EC31" s="38"/>
+      <c r="ED31" s="38"/>
+      <c r="EE31" s="38"/>
+      <c r="EF31" s="38"/>
+      <c r="EG31" s="38"/>
+      <c r="EH31" s="38"/>
+      <c r="EI31" s="38"/>
+      <c r="EJ31" s="38"/>
+      <c r="EK31" s="38"/>
+      <c r="EL31" s="38"/>
     </row>
     <row r="32" spans="2:142" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
@@ -2999,7 +3004,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -3864,57 +3869,57 @@
       <c r="AY43" s="2"/>
       <c r="AZ43" s="2"/>
       <c r="BA43" s="2"/>
-      <c r="CN43" s="23"/>
-      <c r="CO43" s="23"/>
-      <c r="CP43" s="23"/>
-      <c r="CQ43" s="23"/>
-      <c r="CR43" s="21"/>
-      <c r="CS43" s="21"/>
-      <c r="CT43" s="21"/>
-      <c r="CU43" s="21"/>
-      <c r="CV43" s="22"/>
-      <c r="CW43" s="22"/>
-      <c r="CX43" s="22"/>
-      <c r="CY43" s="22"/>
-      <c r="CZ43" s="22"/>
-      <c r="DA43" s="22"/>
-      <c r="DB43" s="22"/>
-      <c r="DC43" s="22"/>
-      <c r="DD43" s="22"/>
-      <c r="DE43" s="22"/>
-      <c r="DF43" s="22"/>
-      <c r="DG43" s="22"/>
-      <c r="DH43" s="22"/>
-      <c r="DI43" s="22"/>
-      <c r="DJ43" s="22"/>
-      <c r="DK43" s="22"/>
-      <c r="DL43" s="22"/>
-      <c r="DM43" s="22"/>
-      <c r="DN43" s="22"/>
-      <c r="DO43" s="22"/>
-      <c r="DP43" s="22"/>
-      <c r="DQ43" s="22"/>
-      <c r="DR43" s="22"/>
-      <c r="DS43" s="22"/>
-      <c r="DT43" s="22"/>
-      <c r="DU43" s="22"/>
-      <c r="DV43" s="22"/>
-      <c r="DW43" s="22"/>
-      <c r="DX43" s="22"/>
-      <c r="DY43" s="22"/>
-      <c r="DZ43" s="22"/>
-      <c r="EA43" s="22"/>
-      <c r="EB43" s="22"/>
-      <c r="EC43" s="22"/>
-      <c r="ED43" s="22"/>
-      <c r="EE43" s="22"/>
-      <c r="EF43" s="22"/>
-      <c r="EG43" s="22"/>
-      <c r="EH43" s="22"/>
-      <c r="EI43" s="22"/>
-      <c r="EJ43" s="22"/>
-      <c r="EK43" s="22"/>
-      <c r="EL43" s="22"/>
+      <c r="CN43" s="39"/>
+      <c r="CO43" s="39"/>
+      <c r="CP43" s="39"/>
+      <c r="CQ43" s="39"/>
+      <c r="CR43" s="37"/>
+      <c r="CS43" s="37"/>
+      <c r="CT43" s="37"/>
+      <c r="CU43" s="37"/>
+      <c r="CV43" s="38"/>
+      <c r="CW43" s="38"/>
+      <c r="CX43" s="38"/>
+      <c r="CY43" s="38"/>
+      <c r="CZ43" s="38"/>
+      <c r="DA43" s="38"/>
+      <c r="DB43" s="38"/>
+      <c r="DC43" s="38"/>
+      <c r="DD43" s="38"/>
+      <c r="DE43" s="38"/>
+      <c r="DF43" s="38"/>
+      <c r="DG43" s="38"/>
+      <c r="DH43" s="38"/>
+      <c r="DI43" s="38"/>
+      <c r="DJ43" s="38"/>
+      <c r="DK43" s="38"/>
+      <c r="DL43" s="38"/>
+      <c r="DM43" s="38"/>
+      <c r="DN43" s="38"/>
+      <c r="DO43" s="38"/>
+      <c r="DP43" s="38"/>
+      <c r="DQ43" s="38"/>
+      <c r="DR43" s="38"/>
+      <c r="DS43" s="38"/>
+      <c r="DT43" s="38"/>
+      <c r="DU43" s="38"/>
+      <c r="DV43" s="38"/>
+      <c r="DW43" s="38"/>
+      <c r="DX43" s="38"/>
+      <c r="DY43" s="38"/>
+      <c r="DZ43" s="38"/>
+      <c r="EA43" s="38"/>
+      <c r="EB43" s="38"/>
+      <c r="EC43" s="38"/>
+      <c r="ED43" s="38"/>
+      <c r="EE43" s="38"/>
+      <c r="EF43" s="38"/>
+      <c r="EG43" s="38"/>
+      <c r="EH43" s="38"/>
+      <c r="EI43" s="38"/>
+      <c r="EJ43" s="38"/>
+      <c r="EK43" s="38"/>
+      <c r="EL43" s="38"/>
     </row>
     <row r="44" spans="2:142" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
@@ -4023,10 +4028,10 @@
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2"/>
       <c r="BA45" s="2"/>
-      <c r="CJ45" s="21"/>
-      <c r="CK45" s="21"/>
-      <c r="CL45" s="21"/>
-      <c r="CM45" s="21"/>
+      <c r="CJ45" s="37"/>
+      <c r="CK45" s="37"/>
+      <c r="CL45" s="37"/>
+      <c r="CM45" s="37"/>
     </row>
     <row r="46" spans="2:142" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B46" s="2"/>
@@ -5839,57 +5844,57 @@
       <c r="AY79" s="2"/>
       <c r="AZ79" s="2"/>
       <c r="BA79" s="2"/>
-      <c r="CN79" s="23"/>
-      <c r="CO79" s="23"/>
-      <c r="CP79" s="23"/>
-      <c r="CQ79" s="23"/>
-      <c r="CR79" s="21"/>
-      <c r="CS79" s="21"/>
-      <c r="CT79" s="21"/>
-      <c r="CU79" s="21"/>
-      <c r="CV79" s="22"/>
-      <c r="CW79" s="22"/>
-      <c r="CX79" s="22"/>
-      <c r="CY79" s="22"/>
-      <c r="CZ79" s="22"/>
-      <c r="DA79" s="22"/>
-      <c r="DB79" s="22"/>
-      <c r="DC79" s="22"/>
-      <c r="DD79" s="22"/>
-      <c r="DE79" s="22"/>
-      <c r="DF79" s="22"/>
-      <c r="DG79" s="22"/>
-      <c r="DH79" s="22"/>
-      <c r="DI79" s="22"/>
-      <c r="DJ79" s="22"/>
-      <c r="DK79" s="22"/>
-      <c r="DL79" s="22"/>
-      <c r="DM79" s="22"/>
-      <c r="DN79" s="22"/>
-      <c r="DO79" s="22"/>
-      <c r="DP79" s="22"/>
-      <c r="DQ79" s="22"/>
-      <c r="DR79" s="22"/>
-      <c r="DS79" s="22"/>
-      <c r="DT79" s="22"/>
-      <c r="DU79" s="22"/>
-      <c r="DV79" s="22"/>
-      <c r="DW79" s="22"/>
-      <c r="DX79" s="22"/>
-      <c r="DY79" s="22"/>
-      <c r="DZ79" s="22"/>
-      <c r="EA79" s="22"/>
-      <c r="EB79" s="22"/>
-      <c r="EC79" s="22"/>
-      <c r="ED79" s="22"/>
-      <c r="EE79" s="22"/>
-      <c r="EF79" s="22"/>
-      <c r="EG79" s="22"/>
-      <c r="EH79" s="22"/>
-      <c r="EI79" s="22"/>
-      <c r="EJ79" s="22"/>
-      <c r="EK79" s="22"/>
-      <c r="EL79" s="22"/>
+      <c r="CN79" s="39"/>
+      <c r="CO79" s="39"/>
+      <c r="CP79" s="39"/>
+      <c r="CQ79" s="39"/>
+      <c r="CR79" s="37"/>
+      <c r="CS79" s="37"/>
+      <c r="CT79" s="37"/>
+      <c r="CU79" s="37"/>
+      <c r="CV79" s="38"/>
+      <c r="CW79" s="38"/>
+      <c r="CX79" s="38"/>
+      <c r="CY79" s="38"/>
+      <c r="CZ79" s="38"/>
+      <c r="DA79" s="38"/>
+      <c r="DB79" s="38"/>
+      <c r="DC79" s="38"/>
+      <c r="DD79" s="38"/>
+      <c r="DE79" s="38"/>
+      <c r="DF79" s="38"/>
+      <c r="DG79" s="38"/>
+      <c r="DH79" s="38"/>
+      <c r="DI79" s="38"/>
+      <c r="DJ79" s="38"/>
+      <c r="DK79" s="38"/>
+      <c r="DL79" s="38"/>
+      <c r="DM79" s="38"/>
+      <c r="DN79" s="38"/>
+      <c r="DO79" s="38"/>
+      <c r="DP79" s="38"/>
+      <c r="DQ79" s="38"/>
+      <c r="DR79" s="38"/>
+      <c r="DS79" s="38"/>
+      <c r="DT79" s="38"/>
+      <c r="DU79" s="38"/>
+      <c r="DV79" s="38"/>
+      <c r="DW79" s="38"/>
+      <c r="DX79" s="38"/>
+      <c r="DY79" s="38"/>
+      <c r="DZ79" s="38"/>
+      <c r="EA79" s="38"/>
+      <c r="EB79" s="38"/>
+      <c r="EC79" s="38"/>
+      <c r="ED79" s="38"/>
+      <c r="EE79" s="38"/>
+      <c r="EF79" s="38"/>
+      <c r="EG79" s="38"/>
+      <c r="EH79" s="38"/>
+      <c r="EI79" s="38"/>
+      <c r="EJ79" s="38"/>
+      <c r="EK79" s="38"/>
+      <c r="EL79" s="38"/>
     </row>
     <row r="80" spans="2:142" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B80" s="2"/>
@@ -5998,10 +6003,10 @@
       <c r="AY81" s="2"/>
       <c r="AZ81" s="2"/>
       <c r="BA81" s="2"/>
-      <c r="CJ81" s="21"/>
-      <c r="CK81" s="21"/>
-      <c r="CL81" s="21"/>
-      <c r="CM81" s="21"/>
+      <c r="CJ81" s="37"/>
+      <c r="CK81" s="37"/>
+      <c r="CL81" s="37"/>
+      <c r="CM81" s="37"/>
     </row>
     <row r="82" spans="2:142" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B82" s="2"/>
@@ -6690,57 +6695,57 @@
       <c r="AY94" s="2"/>
       <c r="AZ94" s="2"/>
       <c r="BA94" s="2"/>
-      <c r="CN94" s="23"/>
-      <c r="CO94" s="23"/>
-      <c r="CP94" s="23"/>
-      <c r="CQ94" s="23"/>
-      <c r="CR94" s="21"/>
-      <c r="CS94" s="21"/>
-      <c r="CT94" s="21"/>
-      <c r="CU94" s="21"/>
-      <c r="CV94" s="22"/>
-      <c r="CW94" s="22"/>
-      <c r="CX94" s="22"/>
-      <c r="CY94" s="22"/>
-      <c r="CZ94" s="22"/>
-      <c r="DA94" s="22"/>
-      <c r="DB94" s="22"/>
-      <c r="DC94" s="22"/>
-      <c r="DD94" s="22"/>
-      <c r="DE94" s="22"/>
-      <c r="DF94" s="22"/>
-      <c r="DG94" s="22"/>
-      <c r="DH94" s="22"/>
-      <c r="DI94" s="22"/>
-      <c r="DJ94" s="22"/>
-      <c r="DK94" s="22"/>
-      <c r="DL94" s="22"/>
-      <c r="DM94" s="22"/>
-      <c r="DN94" s="22"/>
-      <c r="DO94" s="22"/>
-      <c r="DP94" s="22"/>
-      <c r="DQ94" s="22"/>
-      <c r="DR94" s="22"/>
-      <c r="DS94" s="22"/>
-      <c r="DT94" s="22"/>
-      <c r="DU94" s="22"/>
-      <c r="DV94" s="22"/>
-      <c r="DW94" s="22"/>
-      <c r="DX94" s="22"/>
-      <c r="DY94" s="22"/>
-      <c r="DZ94" s="22"/>
-      <c r="EA94" s="22"/>
-      <c r="EB94" s="22"/>
-      <c r="EC94" s="22"/>
-      <c r="ED94" s="22"/>
-      <c r="EE94" s="22"/>
-      <c r="EF94" s="22"/>
-      <c r="EG94" s="22"/>
-      <c r="EH94" s="22"/>
-      <c r="EI94" s="22"/>
-      <c r="EJ94" s="22"/>
-      <c r="EK94" s="22"/>
-      <c r="EL94" s="22"/>
+      <c r="CN94" s="39"/>
+      <c r="CO94" s="39"/>
+      <c r="CP94" s="39"/>
+      <c r="CQ94" s="39"/>
+      <c r="CR94" s="37"/>
+      <c r="CS94" s="37"/>
+      <c r="CT94" s="37"/>
+      <c r="CU94" s="37"/>
+      <c r="CV94" s="38"/>
+      <c r="CW94" s="38"/>
+      <c r="CX94" s="38"/>
+      <c r="CY94" s="38"/>
+      <c r="CZ94" s="38"/>
+      <c r="DA94" s="38"/>
+      <c r="DB94" s="38"/>
+      <c r="DC94" s="38"/>
+      <c r="DD94" s="38"/>
+      <c r="DE94" s="38"/>
+      <c r="DF94" s="38"/>
+      <c r="DG94" s="38"/>
+      <c r="DH94" s="38"/>
+      <c r="DI94" s="38"/>
+      <c r="DJ94" s="38"/>
+      <c r="DK94" s="38"/>
+      <c r="DL94" s="38"/>
+      <c r="DM94" s="38"/>
+      <c r="DN94" s="38"/>
+      <c r="DO94" s="38"/>
+      <c r="DP94" s="38"/>
+      <c r="DQ94" s="38"/>
+      <c r="DR94" s="38"/>
+      <c r="DS94" s="38"/>
+      <c r="DT94" s="38"/>
+      <c r="DU94" s="38"/>
+      <c r="DV94" s="38"/>
+      <c r="DW94" s="38"/>
+      <c r="DX94" s="38"/>
+      <c r="DY94" s="38"/>
+      <c r="DZ94" s="38"/>
+      <c r="EA94" s="38"/>
+      <c r="EB94" s="38"/>
+      <c r="EC94" s="38"/>
+      <c r="ED94" s="38"/>
+      <c r="EE94" s="38"/>
+      <c r="EF94" s="38"/>
+      <c r="EG94" s="38"/>
+      <c r="EH94" s="38"/>
+      <c r="EI94" s="38"/>
+      <c r="EJ94" s="38"/>
+      <c r="EK94" s="38"/>
+      <c r="EL94" s="38"/>
     </row>
     <row r="95" spans="2:142" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B95" s="2"/>
@@ -6849,10 +6854,10 @@
       <c r="AY96" s="2"/>
       <c r="AZ96" s="2"/>
       <c r="BA96" s="2"/>
-      <c r="CJ96" s="21"/>
-      <c r="CK96" s="21"/>
-      <c r="CL96" s="21"/>
-      <c r="CM96" s="21"/>
+      <c r="CJ96" s="37"/>
+      <c r="CK96" s="37"/>
+      <c r="CL96" s="37"/>
+      <c r="CM96" s="37"/>
     </row>
     <row r="97" spans="2:53" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B97" s="2"/>
@@ -9412,16 +9417,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
     <mergeCell ref="CJ96:CM96"/>
     <mergeCell ref="CR79:CU79"/>
     <mergeCell ref="CV79:EL79"/>
@@ -9438,6 +9433,16 @@
     <mergeCell ref="CN94:CQ94"/>
     <mergeCell ref="CR94:CU94"/>
     <mergeCell ref="CV94:EL94"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
